--- a/shared/ojb-resources-common/src/main/resources/service-specifications/Court_Case_Filing_Service/artifacts/service_model/information_model/Court_Case_Filing-IEPD/documentation/impl-artifacts/alaska/AlaskaCriminalCaseMapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/service-specifications/Court_Case_Filing_Service/artifacts/service_model/information_model/Court_Case_Filing-IEPD/documentation/impl-artifacts/alaska/AlaskaCriminalCaseMapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="980" windowWidth="32320" windowHeight="18000"/>
+    <workbookView xWindow="2880" yWindow="975" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Court Case Filing" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="296">
   <si>
     <t>ATN [Arrest Tracking Number]</t>
   </si>
@@ -901,10 +901,13 @@
     <t>BL does not currently have this element.  Should we add?</t>
   </si>
   <si>
-    <t>CV has a separate Driver License Number for a CDL.  Is this correct?  Should we add?</t>
-  </si>
-  <si>
     <t>Assuming that BL Appearance Date is equivalent to CV Schedule Date.  We should use the same element.</t>
+  </si>
+  <si>
+    <t>CV has a separate Driver License Number for a CDL.  Is this correct?  Should we add?  Also, CV uses a "DID" ID Number, what is that?</t>
+  </si>
+  <si>
+    <t>CV uses a CaseTracking ID.  Is that the same as Dockent Number?</t>
   </si>
 </sst>
 </file>
@@ -1156,12 +1159,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1205,7 +1223,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1252,13 +1270,55 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1599,1273 +1659,1351 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
-    <col min="3" max="4" width="57.33203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="57.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="37" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="17" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="10" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="10" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="10" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="10" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="22" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="24">
-      <c r="A7" s="10" t="s">
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="10" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="14" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="24">
-      <c r="A10" s="10" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="22" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="36">
-      <c r="A11" s="10" t="s">
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="36">
-      <c r="A12" s="10" t="s">
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="22" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="36">
-      <c r="A13" s="10" t="s">
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="22" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="36">
-      <c r="A14" s="10" t="s">
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="10" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" ht="36">
-      <c r="A16" s="12" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="14" t="s">
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="24">
-      <c r="A18" s="12" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="29" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" ht="24">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="29" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="24">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="29" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="24">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="29" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" ht="12">
-      <c r="A22" s="12"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="12">
-      <c r="A23" s="12"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="14" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" ht="12">
-      <c r="A25" s="12" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" ht="12">
-      <c r="A26" s="12" t="s">
+      <c r="D23" s="28"/>
+      <c r="E23" s="29" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D24" s="28" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" ht="36">
-      <c r="A27" s="12" t="s">
+      <c r="E24" s="29"/>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D25" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E25" s="29" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="E27" s="29"/>
+    </row>
+    <row r="28" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="E29" s="29"/>
+    </row>
+    <row r="30" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
+    </row>
+    <row r="32" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="32"/>
+      <c r="E32" s="29"/>
+    </row>
+    <row r="33" spans="1:5" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="D33" s="28"/>
+      <c r="E33" s="29"/>
+    </row>
+    <row r="34" spans="1:5" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="28"/>
+      <c r="E34" s="29"/>
+    </row>
+    <row r="35" spans="1:5" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="28"/>
+      <c r="E35" s="29"/>
+    </row>
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A36" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" s="28"/>
+      <c r="E36" s="29"/>
+    </row>
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="28"/>
+      <c r="E37" s="29"/>
+    </row>
+    <row r="38" spans="1:5" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="D38" s="28"/>
+      <c r="E38" s="29"/>
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="E39" s="29"/>
+    </row>
+    <row r="40" spans="1:5" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" s="28"/>
+      <c r="E40" s="29"/>
+    </row>
+    <row r="41" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41" s="28"/>
+      <c r="E41" s="29"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+    </row>
+    <row r="43" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A43" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43" s="28"/>
+      <c r="E43" s="29"/>
+    </row>
+    <row r="44" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A44" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" s="28"/>
+      <c r="E44" s="29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A45" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" s="28"/>
+      <c r="E45" s="29"/>
+    </row>
+    <row r="46" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A46" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="E46" s="29"/>
+    </row>
+    <row r="47" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A47" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A48" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="E48" s="29"/>
+    </row>
+    <row r="49" spans="1:5" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A49" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49" s="28"/>
+      <c r="E49" s="29"/>
+    </row>
+    <row r="50" spans="1:5" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A50" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="E50" s="29"/>
+    </row>
+    <row r="51" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A51" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="E51" s="29"/>
+    </row>
+    <row r="52" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A52" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D52" s="28"/>
+      <c r="E52" s="29"/>
+    </row>
+    <row r="53" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A53" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D53" s="28"/>
+      <c r="E53" s="29"/>
+    </row>
+    <row r="54" spans="1:5" s="2" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A55" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="D55" s="28"/>
+      <c r="E55" s="29"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="19"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+    </row>
+    <row r="57" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A57" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="E57" s="29"/>
+    </row>
+    <row r="58" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A58" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="E58" s="29"/>
+    </row>
+    <row r="59" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A59" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="E59" s="29"/>
+    </row>
+    <row r="60" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A60" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="E60" s="29"/>
+    </row>
+    <row r="61" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A61" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="E61" s="29"/>
+    </row>
+    <row r="62" spans="1:5" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A62" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="E62" s="29"/>
+    </row>
+    <row r="63" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A63" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D63" s="28"/>
+      <c r="E63" s="29"/>
+    </row>
+    <row r="64" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A64" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D64" s="28"/>
+      <c r="E64" s="29"/>
+    </row>
+    <row r="65" spans="1:9" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A65" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="D65" s="28"/>
+      <c r="E65" s="29"/>
+    </row>
+    <row r="66" spans="1:9" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A66" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" s="28"/>
+      <c r="E66" s="29"/>
+    </row>
+    <row r="67" spans="1:9" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A67" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D67" s="28"/>
+      <c r="E67" s="29"/>
+    </row>
+    <row r="68" spans="1:9" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A68" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="E68" s="29"/>
+    </row>
+    <row r="69" spans="1:9" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A69" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="E69" s="29"/>
+    </row>
+    <row r="70" spans="1:9" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A70" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="E70" s="29"/>
+    </row>
+    <row r="71" spans="1:9" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A71" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="E71" s="29"/>
+    </row>
+    <row r="72" spans="1:9" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A72" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="E72" s="29"/>
+    </row>
+    <row r="73" spans="1:9" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A73" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="E73" s="29" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" ht="24">
-      <c r="A28" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" ht="24">
-      <c r="A29" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" ht="36">
-      <c r="A30" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" ht="24">
-      <c r="A31" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" ht="36">
-      <c r="A32" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A33" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" ht="36">
-      <c r="A34" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="D34" s="18"/>
-    </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" ht="36">
-      <c r="A35" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="36">
-      <c r="A36" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="36">
-      <c r="A37" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" s="2" customFormat="1" ht="48">
-      <c r="A38" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="36">
-      <c r="A39" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" ht="36">
-      <c r="A40" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A41" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="48">
-      <c r="A42" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:5" s="2" customFormat="1" ht="36">
-      <c r="A43" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-    </row>
-    <row r="45" spans="1:5" s="2" customFormat="1" ht="36">
-      <c r="A45" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:5" s="2" customFormat="1" ht="36">
-      <c r="A46" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="2" customFormat="1" ht="36">
-      <c r="A47" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:5" s="2" customFormat="1" ht="36">
-      <c r="A48" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="2" customFormat="1" ht="36">
-      <c r="A49" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="2" customFormat="1" ht="36">
-      <c r="A50" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="2" customFormat="1" ht="36">
-      <c r="A51" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:5" s="2" customFormat="1" ht="36">
-      <c r="A52" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="2" customFormat="1" ht="36">
-      <c r="A53" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="2" customFormat="1" ht="36">
-      <c r="A54" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="1:5" s="2" customFormat="1" ht="36">
-      <c r="A55" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="1:5" s="2" customFormat="1" ht="38" customHeight="1">
-      <c r="A56" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="2" customFormat="1" ht="24">
-      <c r="A57" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-    </row>
-    <row r="59" spans="1:5" s="2" customFormat="1" ht="24">
-      <c r="A59" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6" t="s">
+    <row r="74" spans="1:9" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A74" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="E74" s="29"/>
+    </row>
+    <row r="75" spans="1:9" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A75" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D75" s="28"/>
+      <c r="E75" s="29"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="B76" s="19"/>
+      <c r="C76" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+    </row>
+    <row r="77" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="25"/>
+      <c r="C77" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77" s="22"/>
+      <c r="E77" s="23"/>
+    </row>
+    <row r="78" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A78" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" s="25"/>
+      <c r="C78" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="2" customFormat="1" ht="24">
-      <c r="A60" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6" t="s">
+      <c r="D78" s="22"/>
+      <c r="E78" s="23"/>
+    </row>
+    <row r="79" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A79" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="2" customFormat="1" ht="24">
-      <c r="A61" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6" t="s">
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A80" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="2" customFormat="1" ht="24">
-      <c r="A62" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6" t="s">
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A81" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="2" customFormat="1" ht="24">
-      <c r="A63" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="2" customFormat="1" ht="24">
-      <c r="A64" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="2" customFormat="1" ht="36">
-      <c r="A65" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D65" s="6"/>
-    </row>
-    <row r="66" spans="1:5" s="2" customFormat="1" ht="36">
-      <c r="A66" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D66" s="6"/>
-    </row>
-    <row r="67" spans="1:5" s="2" customFormat="1" ht="36">
-      <c r="A67" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D67" s="6"/>
-    </row>
-    <row r="68" spans="1:5" s="2" customFormat="1" ht="24">
-      <c r="A68" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D68" s="6"/>
-    </row>
-    <row r="69" spans="1:5" s="2" customFormat="1" ht="36">
-      <c r="A69" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D69" s="6"/>
-    </row>
-    <row r="70" spans="1:5" s="2" customFormat="1" ht="36">
-      <c r="A70" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="2" customFormat="1" ht="24">
-      <c r="A71" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="2" customFormat="1" ht="36">
-      <c r="A72" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="2" customFormat="1" ht="24">
-      <c r="A73" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="2" customFormat="1" ht="24">
-      <c r="A74" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="2" customFormat="1" ht="24">
-      <c r="A75" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="2" customFormat="1" ht="24">
-      <c r="A76" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="2" customFormat="1" ht="24">
-      <c r="A77" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D77" s="6"/>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D78" s="9"/>
-    </row>
-    <row r="79" spans="1:5" ht="24">
-      <c r="A79" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B79" s="15"/>
-      <c r="C79" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D79" s="3"/>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B80" s="15"/>
-      <c r="C80" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D80" s="3"/>
-    </row>
-    <row r="81" spans="1:9" ht="24">
-      <c r="A81" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
     </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
+    <row r="82" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A82" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="E82" s="22"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="1:9" ht="24">
-      <c r="A83" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
+    <row r="83" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A83" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
     </row>
-    <row r="84" spans="1:9" ht="24">
-      <c r="A84" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E84" s="3"/>
+    <row r="84" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A84" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
     </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D85" s="9"/>
-      <c r="E85" s="3"/>
+    <row r="85" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A85" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="1:9" ht="36">
-      <c r="A86" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
+    <row r="86" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+      <c r="A86" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="1:9" ht="36">
-      <c r="A87" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
+    <row r="87" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A87" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
     </row>
-    <row r="88" spans="1:9" ht="36">
-      <c r="A88" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
+    <row r="88" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A88" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
     </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
+    <row r="89" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A89" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="E89" s="22"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
     </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D90" s="9"/>
-      <c r="E90" s="3"/>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
     </row>
-    <row r="91" spans="1:9" ht="24">
-      <c r="A91" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E91" s="3"/>
+    <row r="91" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A91" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
     </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="D92" s="9"/>
-      <c r="E92" s="3"/>
+    <row r="92" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+      <c r="A92" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E92" s="22"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
     </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
+    <row r="93" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+      <c r="A93" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="E93" s="22"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
     </row>
-    <row r="94" spans="1:9" ht="36">
-      <c r="A94" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E94" s="3"/>
+    <row r="94" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A94" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
     </row>
-    <row r="95" spans="1:9" ht="36">
-      <c r="A95" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E95" s="3"/>
+    <row r="95" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+      <c r="A95" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="E95" s="22"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
     </row>
-    <row r="96" spans="1:9" ht="36">
-      <c r="A96" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
     </row>
-    <row r="97" spans="1:9" ht="36">
-      <c r="A97" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E97" s="3"/>
+    <row r="97" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A97" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="22"/>
+      <c r="C97" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
     </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="D98" s="9"/>
-      <c r="E98" s="3"/>
+    <row r="98" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A98" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
     </row>
-    <row r="99" spans="1:9" ht="24">
-      <c r="A99" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
     </row>
-    <row r="100" spans="1:9" ht="36">
-      <c r="A100" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
+    <row r="100" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A100" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B100" s="22"/>
+      <c r="C100" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
     </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="D101" s="9"/>
-      <c r="E101" s="3"/>
+    <row r="101" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A101" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="B101" s="22"/>
+      <c r="C101" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
     </row>
-    <row r="102" spans="1:9" ht="24">
-      <c r="A102" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
+    <row r="102" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A102" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B102" s="20"/>
+      <c r="C102" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
     </row>
-    <row r="103" spans="1:9" ht="24">
-      <c r="A103" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
+    <row r="103" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A103" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B103" s="22"/>
+      <c r="C103" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
     </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="B104" s="9"/>
-      <c r="C104" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="D104" s="9"/>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="10"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
     </row>
-    <row r="105" spans="1:9" ht="24">
-      <c r="A105" s="10" t="s">
-        <v>237</v>
-      </c>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="10"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="3" t="s">
-        <v>236</v>
-      </c>
+      <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
@@ -2873,7 +3011,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2884,7 +3022,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2895,7 +3033,7 @@
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2906,7 +3044,7 @@
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2917,7 +3055,7 @@
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2928,7 +3066,7 @@
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2939,7 +3077,7 @@
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2950,7 +3088,7 @@
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2961,31 +3099,9 @@
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
     </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="10"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="10"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3002,15 +3118,15 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="152.6640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="32.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="152.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>83</v>
       </c>
@@ -3021,14 +3137,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="9"/>
     </row>
-    <row r="3" spans="1:3" ht="12" customHeight="1">
+    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -3037,7 +3153,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12" customHeight="1">
+    <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
@@ -3046,7 +3162,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12" customHeight="1">
+    <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
@@ -3055,7 +3171,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12" customHeight="1">
+    <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -3064,7 +3180,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12" customHeight="1">
+    <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
@@ -3073,14 +3189,14 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:3" ht="12" customHeight="1">
+    <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>32</v>
       </c>
@@ -3089,7 +3205,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12" customHeight="1">
+    <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>33</v>
       </c>
@@ -3098,7 +3214,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12" customHeight="1">
+    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>34</v>
       </c>
@@ -3107,7 +3223,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12" customHeight="1">
+    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>35</v>
       </c>
@@ -3116,7 +3232,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12" customHeight="1">
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>36</v>
       </c>
@@ -3125,7 +3241,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12" customHeight="1">
+    <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>37</v>
       </c>
@@ -3134,7 +3250,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="2" customFormat="1" ht="12" customHeight="1">
+    <row r="15" spans="1:3" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>0</v>
       </c>
@@ -3143,14 +3259,14 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="17" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>3</v>
       </c>
@@ -3159,7 +3275,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="18" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>27</v>
       </c>
@@ -3168,7 +3284,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="19" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>26</v>
       </c>
@@ -3177,7 +3293,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="20" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>28</v>
       </c>
@@ -3186,7 +3302,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="21" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>29</v>
       </c>
@@ -3195,7 +3311,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="22" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>30</v>
       </c>
@@ -3204,7 +3320,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="23" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>31</v>
       </c>
@@ -3213,7 +3329,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="24" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>69</v>
       </c>
@@ -3222,7 +3338,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="25" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>66</v>
       </c>
@@ -3231,7 +3347,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="26" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>67</v>
       </c>
@@ -3240,7 +3356,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="27" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>68</v>
       </c>
@@ -3249,7 +3365,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="28" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>70</v>
       </c>
@@ -3258,7 +3374,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="29" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>71</v>
       </c>
@@ -3267,7 +3383,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="2" customFormat="1" ht="12" customHeight="1">
+    <row r="30" spans="1:3" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>72</v>
       </c>
@@ -3276,7 +3392,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="31" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>73</v>
       </c>
@@ -3285,14 +3401,14 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="9"/>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="33" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>14</v>
       </c>
@@ -3301,7 +3417,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="34" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>15</v>
       </c>
@@ -3310,7 +3426,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="35" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>16</v>
       </c>
@@ -3319,7 +3435,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="36" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>17</v>
       </c>
@@ -3328,7 +3444,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="37" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>18</v>
       </c>
@@ -3337,7 +3453,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="38" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>22</v>
       </c>
@@ -3346,7 +3462,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="39" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>19</v>
       </c>
@@ -3355,7 +3471,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="40" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>23</v>
       </c>
@@ -3364,7 +3480,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="41" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>24</v>
       </c>
@@ -3373,7 +3489,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="42" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>25</v>
       </c>
@@ -3382,14 +3498,14 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="9"/>
     </row>
-    <row r="44" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="44" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>38</v>
       </c>
@@ -3398,7 +3514,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="45" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>39</v>
       </c>
@@ -3407,7 +3523,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="46" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>40</v>
       </c>
@@ -3416,7 +3532,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="47" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>41</v>
       </c>
@@ -3425,7 +3541,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="48" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>42</v>
       </c>
@@ -3434,7 +3550,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="49" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>43</v>
       </c>
@@ -3443,7 +3559,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="50" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>44</v>
       </c>
@@ -3452,7 +3568,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="51" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>45</v>
       </c>
@@ -3461,7 +3577,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="52" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>48</v>
       </c>
@@ -3470,7 +3586,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="53" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>46</v>
       </c>
@@ -3479,7 +3595,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="54" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>47</v>
       </c>
@@ -3488,7 +3604,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="55" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>49</v>
       </c>
@@ -3497,7 +3613,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="56" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>50</v>
       </c>
@@ -3506,7 +3622,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="2" customFormat="1" ht="12">
+    <row r="57" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>51</v>
       </c>
@@ -3515,7 +3631,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>7</v>
       </c>
@@ -3524,7 +3640,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="12" customHeight="1">
+    <row r="59" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>74</v>
       </c>
@@ -3533,7 +3649,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="12" customHeight="1">
+    <row r="60" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>52</v>
       </c>
@@ -3542,7 +3658,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="12" customHeight="1">
+    <row r="61" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>53</v>
       </c>
@@ -3551,7 +3667,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="12" customHeight="1">
+    <row r="62" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>54</v>
       </c>
@@ -3560,7 +3676,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="12" customHeight="1">
+    <row r="63" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>55</v>
       </c>
@@ -3569,7 +3685,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="12" customHeight="1">
+    <row r="64" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>56</v>
       </c>
@@ -3578,7 +3694,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>8</v>
       </c>
@@ -3587,7 +3703,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="12" customHeight="1">
+    <row r="66" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>57</v>
       </c>
@@ -3595,7 +3711,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="12" customHeight="1">
+    <row r="67" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>58</v>
       </c>
@@ -3603,7 +3719,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="12" customHeight="1">
+    <row r="68" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>59</v>
       </c>
@@ -3611,7 +3727,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="12" customHeight="1">
+    <row r="69" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>60</v>
       </c>
@@ -3619,51 +3735,51 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="C71" s="3"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C80" s="3"/>
     </row>
-    <row r="81" spans="3:3" s="1" customFormat="1">
+    <row r="81" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C81" s="3"/>
     </row>
-    <row r="82" spans="3:3" s="1" customFormat="1">
+    <row r="82" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C82" s="3"/>
     </row>
-    <row r="83" spans="3:3" s="1" customFormat="1">
+    <row r="83" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C83" s="3"/>
     </row>
   </sheetData>

--- a/shared/ojb-resources-common/src/main/resources/service-specifications/Court_Case_Filing_Service/artifacts/service_model/information_model/Court_Case_Filing-IEPD/documentation/impl-artifacts/alaska/AlaskaCriminalCaseMapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/service-specifications/Court_Case_Filing_Service/artifacts/service_model/information_model/Court_Case_Filing-IEPD/documentation/impl-artifacts/alaska/AlaskaCriminalCaseMapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="975" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-28800" yWindow="5460" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Court Case Filing" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="331">
   <si>
     <t>ATN [Arrest Tracking Number]</t>
   </si>
@@ -205,9 +205,6 @@
     <t>Job Position</t>
   </si>
   <si>
-    <t>/cc-filing-doc:CourtCaseFilingDocument/nc:DocumentCategoryText</t>
-  </si>
-  <si>
     <t>/cc-filing-doc:CourtCaseFilingDocument/nc:DocumentCreationDate/nc:Date</t>
   </si>
   <si>
@@ -463,9 +460,6 @@
     <t>Charge Domestic Violence indicator</t>
   </si>
   <si>
-    <t>Digitized Signature ?</t>
-  </si>
-  <si>
     <t>Operator License Number</t>
   </si>
   <si>
@@ -625,9 +619,6 @@
     <t>/cc-filing-doc:CourtCaseFilingDocument/nc:Case/j:CaseAugmentation/j:CaseCharge/j:ChargeTrackingIdentification/nc:IdentificationID</t>
   </si>
   <si>
-    <t>/cc-filing-doc:CourtCaseFilingDocument/nc:Person/nc:PersonDigitizedSignatureImage/nc:Base64BinaryObject</t>
-  </si>
-  <si>
     <t>/cc-filing-doc:CourtCaseFilingDocument/nc:Person/cc-filing-ext:OperatorLicenseIdentification/nc:IdentificationID</t>
   </si>
   <si>
@@ -664,9 +655,6 @@
     <t>/cc-filing-doc:CourtCaseFilingDocument/nc:Organization/nc:OrganizationName</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>Location Description</t>
   </si>
   <si>
@@ -682,9 +670,6 @@
     <t>Zip Code</t>
   </si>
   <si>
-    <t>/cc-filing-doc:CourtCaseFilingDocument/nc:Location</t>
-  </si>
-  <si>
     <t>/cc-filing-doc:CourtCaseFilingDocument/nc:Location/@structures:id</t>
   </si>
   <si>
@@ -703,72 +688,12 @@
     <t>/cc-filing-doc:CourtCaseFilingDocument/nc:Location/nc:Address/nc:LocationPostalCode</t>
   </si>
   <si>
-    <t>PersonResidenceAssociation</t>
-  </si>
-  <si>
-    <t>OffenseLocationAssociation</t>
-  </si>
-  <si>
-    <t>/cc-filing-doc:CourtCaseFilingDocument/nc:PersonResidenceAssociation/nc:Person/@structures:ref</t>
-  </si>
-  <si>
-    <t>/cc-filing-doc:CourtCaseFilingDocument/nc:PersonResidenceAssociation/nc:Location/@structures:ref</t>
-  </si>
-  <si>
     <t>Offense</t>
   </si>
   <si>
-    <t>/cc-filing-doc:CourtCaseFilingDocument/j:OffenseLocationAssociation/j:Offense/@structures:ref</t>
-  </si>
-  <si>
-    <t>/cc-filing-doc:CourtCaseFilingDocument/j:OffenseLocationAssociation/nc:Location/@structures:ref</t>
-  </si>
-  <si>
-    <t>Date of Offense</t>
-  </si>
-  <si>
     <t>/cc-filing-doc:CourtCaseFilingDocument/j:Offense/nc:ActivityDate/nc:Date</t>
   </si>
   <si>
-    <t>/cc-filing-doc:CourtCaseFilingDocument/cc-filing-ext:CourtCaseFilingAttachment/xop:Include/@href</t>
-  </si>
-  <si>
-    <t>Document Attachment</t>
-  </si>
-  <si>
-    <t>/cc-filing-doc:CourtCaseFilingDocument/cc-filing-ext:CourtCaseFilingAttachment</t>
-  </si>
-  <si>
-    <t>core:CoreFilingMessage/criminalcase:CriminalCase/nc:ActivityDate/nc:Date</t>
-  </si>
-  <si>
-    <t>core:CoreFilingMessage/criminalcase:CriminalCase/nc:CaseCategoryText</t>
-  </si>
-  <si>
-    <t>core:CoreFilingMessage/criminalcase:CriminalCase/j:CaseAugmentation/j:CaseCourt/nc:OrganizationName</t>
-  </si>
-  <si>
-    <t>core:CoreFilingMessage/criminalcase:CriminalCase/j:CaseAugmentation/j:CaseCourt/j:CourtName</t>
-  </si>
-  <si>
-    <t>core:CoreFilingMessage/criminalcase:CriminalCase/j:CaseAugmentation/j:CaseCourtEvent/j:CourtEventSchedule/nc:ScheduleDate/nc:Date</t>
-  </si>
-  <si>
-    <t>core:CoreFilingMessage/criminalcase:CriminalCase/j:CaseAugmentation/j:CaseDefendantParty/ecf:EntityPerson/nc:PersonBirthDate/nc:Date</t>
-  </si>
-  <si>
-    <t>core:CoreFilingMessage/criminalcase:CriminalCase/j:CaseAugmentation/j:CaseDefendantParty/ecf:EntityPerson/nc:PersonName/nc:PersonGivenName</t>
-  </si>
-  <si>
-    <t>core:CoreFilingMessage/criminalcase:CriminalCase/j:CaseAugmentation/j:CaseDefendantParty/ecf:EntityPerson/nc:PersonName/nc:PersonMiddleName</t>
-  </si>
-  <si>
-    <t>core:CoreFilingMessage/criminalcase:CriminalCase/j:CaseAugmentation/j:CaseDefendantParty/ecf:EntityPerson/nc:PersonName/nc:PersonSurName</t>
-  </si>
-  <si>
-    <t>core:CoreFilingMessage/criminalcase:CriminalCase/j:CaseAugmentation/j:CaseDefendantParty/ecf:EntityPerson/nc:PersonName/nc:PersonFullName</t>
-  </si>
-  <si>
     <t>core:CoreFilingMessage/criminalcase:CriminalCase/j:CaseAugmentation/j:CaseDefendantParty/ecf:EntityPerson/nc:PersonOtherIdentification/nc:IdentificationID</t>
   </si>
   <si>
@@ -811,30 +736,6 @@
     <t>core:CoreFilingMessage/criminalcase:CriminalCase/j:CaseAugmentation/j:CaseInitiatingParty/ecf:EntityOrganization/nc:OrganizationName</t>
   </si>
   <si>
-    <t>core:CoreFilingMessage/criminalcase:CriminalCase/j:CaseAugmentation/j:CaseProsecutionAttorney/j:JudicialOfficialBarMembership/j:JudicialOfficialBarIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>core:CoreFilingMessage/criminalcase:CriminalCase/criminalcase:CaseArrest/j:ArrestAgency/nc:OrganizationName</t>
-  </si>
-  <si>
-    <t>core:CoreFilingMessage/criminalcase:CriminalCase/criminalcase:CaseArrest/j:ArrestAgencyRecordIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>core:CoreFilingMessage/criminalcase:CriminalCase/criminalcase:CaseArrest/j:ArrestOfficial/j:EnforcementOfficialBadgeIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>core:CoreFilingMessage/criminalcase:CriminalCase/criminalcase:CaseCharge/j:ChargeSeverityLevel/j:SeverityLevelDescriptionText</t>
-  </si>
-  <si>
-    <t>core:CoreFilingMessage/criminalcase:CriminalCase/criminalcase:CaseCharge/j:ChargeStatute/j:StatuteCodeIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>core:CoreFilingMessage/criminalcase:CriminalCase/criminalcase:CaseCharge/j:ChargeStatute/j:StatuteCodeSectionIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>core:CoreFilingMessage/criminalcase:CriminalCase/criminalcase:CaseCharge/j:ChargeStatute/j:StatuteDescriptionText</t>
-  </si>
-  <si>
     <t>/cc-filing-doc:CourtCaseFilingDocument/nc:Case/nc:CaseCategoryText</t>
   </si>
   <si>
@@ -844,18 +745,9 @@
     <t>/core:CoreFilingMessage/criminalcase:CriminalCase/j:CaseAugmentation/j:CaseCourt/nc:OrganizationIdentification/nc:IdentificationID</t>
   </si>
   <si>
-    <t>Is this Activity Date in Courtview the same as Filing Date in BL?</t>
-  </si>
-  <si>
     <t>/core:CoreFilingMessage/criminalcase:CriminalCase/j:CaseAugmentation/j:CaseDefendantParty/ecf:EntityPerson/nc:PersonName/nc:PersonNameSuffixText</t>
   </si>
   <si>
-    <t>/core:CoreFilingMessage/criminalcase:CriminalCase/criminalcase:CaseCharge/j:ChargeSeverityLevel/j:SeverityLevelIdentification/nc:IdentificationSourceText</t>
-  </si>
-  <si>
-    <t>CV uses Severity Level ID.  Should be Severity Level Text</t>
-  </si>
-  <si>
     <t>Statute Offense Identification</t>
   </si>
   <si>
@@ -874,47 +766,261 @@
     <t>/core:CoreFilingMessage/criminalcase:CriminalCase/criminalcase:CaseCharge/criminalcase:ChargeOffense/nc:ActivityIdentification/nc:IdentificationCategoryText</t>
   </si>
   <si>
-    <t>/core:CoreFilingMessage/criminalcase:CriminalCase/criminalcase:CaseCharge/criminalcase:ChargeOffense/nc:ActivityDateRange</t>
-  </si>
-  <si>
     <t>Offense Location Description</t>
   </si>
   <si>
     <t>/core:CoreFilingMessage/criminalcase:CriminalCase/criminalcase:CaseCharge/criminalcase:ChargeOffense/nc:IncidentLocation/nc:LocationDescriptionText</t>
   </si>
   <si>
-    <t>CV uses a Date Range.  Should this be a Date or Date Range?</t>
-  </si>
-  <si>
     <t>Courtview (CV) Mapping</t>
   </si>
   <si>
-    <t>Bitlink (BL) Mapping</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>Is the CV Court Organization ID the same as the BL Court Category Code?  We should use the same element.</t>
-  </si>
-  <si>
-    <t>BL does not currently have this element.  Should we add?</t>
-  </si>
-  <si>
-    <t>Assuming that BL Appearance Date is equivalent to CV Schedule Date.  We should use the same element.</t>
-  </si>
-  <si>
-    <t>CV has a separate Driver License Number for a CDL.  Is this correct?  Should we add?  Also, CV uses a "DID" ID Number, what is that?</t>
-  </si>
-  <si>
-    <t>CV uses a CaseTracking ID.  Is that the same as Dockent Number?</t>
+    <t>Justware (JW) Mapping</t>
+  </si>
+  <si>
+    <t>ATN Category</t>
+  </si>
+  <si>
+    <t>Date of Offense (start date)</t>
+  </si>
+  <si>
+    <t>Date of Offense (end date)</t>
+  </si>
+  <si>
+    <t>JW does not currently have this element.  Should we add?  Question posed to BL on whether they carry offense separate from charge information.</t>
+  </si>
+  <si>
+    <t>JW does not currently have this element.  Should we add?  DL: Question posed to BL on whether they carry offense separate from charge information.</t>
+  </si>
+  <si>
+    <t>Uniform Offense Code</t>
+  </si>
+  <si>
+    <t>PassPort Category</t>
+  </si>
+  <si>
+    <t>State ID Category</t>
+  </si>
+  <si>
+    <t>/core:CoreFilingMessage/criminalcase:CriminalCase/criminalcase:CaseCharge/j:ChargeSeverityText</t>
+  </si>
+  <si>
+    <t>/core:CoreFilingMessage/criminalcase:CriminalCase/criminalcase:CaseArrest/j:ArrestAgencyRecordIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/core:CoreFilingMessage/criminalcase:CriminalCase/criminalcase:CaseArrest/j:ArrestAgency/nc:OrganizationName</t>
+  </si>
+  <si>
+    <t>/core:CoreFilingMessage/criminalcase:CriminalCase/criminalcase:CaseCharge/criminalcase:ChargeOffense/nc:ActivityIdentification/nc:IdentificationCategoryText = 'ATN'</t>
+  </si>
+  <si>
+    <t>/core:CoreFilingMessage/criminalcase:CriminalCase/criminalcase:CaseCharge/criminalcase:ChargeOffense/nc:ActivityDateRange/nc:StartDate/nc:Date</t>
+  </si>
+  <si>
+    <t>/core:CoreFilingMessage/criminalcase:CriminalCase/criminalcase:CaseCharge/criminalcase:ChargeOffense/nc:ActivityDateRange/nc:EndDate/nc:Date</t>
+  </si>
+  <si>
+    <t>/core:CoreFilingMessage/criminalcase:CriminalCase/nc:CaseTrackingID</t>
+  </si>
+  <si>
+    <t>/core:CoreFilingMessage/criminalcase:CriminalCase/criminalcase:CaseCharge/j:ChargeSequenceID/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/core:CoreFilingMessage/criminalcase:CriminalCase/criminalcase:CaseCharge/j:ChargeStatute/j:StatuteCodeIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/core:CoreFilingMessage/criminalcase:CriminalCase/criminalcase:CaseCharge/j:ChargeStatute/j:StatuteCodeSectionIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/core:CoreFilingMessage/criminalcase:CriminalCase/criminalcase:CaseCharge/j:ChargeStatute/j:StatuteDescriptionText</t>
+  </si>
+  <si>
+    <t>/core:CoreFilingMessage/criminalcase:CriminalCase/criminalcase:CaseCharge/j:ChargeSeverityLevel/j:SeverityLevelDescriptionText</t>
+  </si>
+  <si>
+    <t>/core:CoreFilingMessage/criminalcase:CriminalCase/j:CaseAugmentation/j:CaseProsecutionAttorney/j:JudicialOfficialBarMembership/j:JudicialOfficialBarIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/core:CoreFilingMessage/criminalcase:CriminalCase/j:CaseAugmentation/j:CaseCourt/j:CourtName</t>
+  </si>
+  <si>
+    <t>/core:CoreFilingMessage/criminalcase:CriminalCase/j:CaseAugmentation/j:CaseCourt/nc:OrganizationName</t>
+  </si>
+  <si>
+    <t>/core:CoreFilingMessage/criminalcase:CriminalCase/j:CaseAugmentation/j:CaseCourtEvent/j:CourtEventSchedule/nc:ScheduleDate/nc:Date</t>
+  </si>
+  <si>
+    <t>/core:CoreFilingMessage/criminalcase:CriminalCase/nc:CaseCategoryText</t>
+  </si>
+  <si>
+    <t>/core:CoreFilingMessage/criminalcase:CriminalCase/criminalcase:CaseArrest/j:ArrestOfficial/j:EnforcementOfficialBadgeIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/core:CoreFilingMessage/criminalcase:CriminalCase/j:CaseAugmentation/j:CaseDefendantParty/ecf:EntityPerson/nc:PersonName/nc:PersonGivenName</t>
+  </si>
+  <si>
+    <t>/core:CoreFilingMessage/criminalcase:CriminalCase/j:CaseAugmentation/j:CaseDefendantParty/ecf:EntityPerson/nc:PersonName/nc:PersonMiddleName</t>
+  </si>
+  <si>
+    <t>/core:CoreFilingMessage/criminalcase:CriminalCase/j:CaseAugmentation/j:CaseDefendantParty/ecf:EntityPerson/nc:PersonName/nc:PersonSurName</t>
+  </si>
+  <si>
+    <t>/core:CoreFilingMessage/criminalcase:CriminalCase/j:CaseAugmentation/j:CaseDefendantParty/ecf:EntityPerson/nc:PersonName/nc:PersonFullName</t>
+  </si>
+  <si>
+    <t>/core:CoreFilingMessage/criminalcase:CriminalCase/j:CaseAugmentation/j:CaseDefendantParty/ecf:EntityPerson/nc:PersonBirthDate/nc:Date</t>
+  </si>
+  <si>
+    <t>/core:CoreFilingMessage/core:FilingLeadDocument/nc:DocumentBinary/nc:BinaryCategoryText</t>
+  </si>
+  <si>
+    <t>JD: j:ChargeSeverityText isn't in ECF, Need to remap.</t>
+  </si>
+  <si>
+    <t>Anchorage PD</t>
+  </si>
+  <si>
+    <t>AA4567889</t>
+  </si>
+  <si>
+    <t>Anchorage</t>
+  </si>
+  <si>
+    <t>AO45678</t>
+  </si>
+  <si>
+    <t>ATN34567</t>
+  </si>
+  <si>
+    <t>ATN</t>
+  </si>
+  <si>
+    <t>Docket45678</t>
+  </si>
+  <si>
+    <t>Felony</t>
+  </si>
+  <si>
+    <t>Dcoument Category</t>
+  </si>
+  <si>
+    <t>JD:  Are we sure we want this mapping to be to a Binary Document?</t>
+  </si>
+  <si>
+    <t>George M. Jones</t>
+  </si>
+  <si>
+    <t>Bar45678</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>4657-93</t>
+  </si>
+  <si>
+    <t>Attempted Robbery</t>
+  </si>
+  <si>
+    <t>UOC 657879</t>
+  </si>
+  <si>
+    <t>Harold</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Raulli</t>
+  </si>
+  <si>
+    <t>Jr</t>
+  </si>
+  <si>
+    <t>Harold j. Raulli</t>
+  </si>
+  <si>
+    <t>Pas43567</t>
+  </si>
+  <si>
+    <t>Passport</t>
+  </si>
+  <si>
+    <t>SID4567</t>
+  </si>
+  <si>
+    <t>Sample Data</t>
+  </si>
+  <si>
+    <t>DL45678</t>
+  </si>
+  <si>
+    <t>Driver License</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>A54678</t>
+  </si>
+  <si>
+    <t>ASPIN</t>
+  </si>
+  <si>
+    <t>OL45678</t>
+  </si>
+  <si>
+    <t>Operator License</t>
+  </si>
+  <si>
+    <t>Rober T. Forgerty</t>
+  </si>
+  <si>
+    <t>ACML Corporation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JD: Why not use nc:CaseDocketID for this element mapping? </t>
+  </si>
+  <si>
+    <t>Derieved from JW Staute Code and Statue Code Section.</t>
+  </si>
+  <si>
+    <t>JD: Why not use "Filing Date" for this element mapping?</t>
+  </si>
+  <si>
+    <t>Class A</t>
+  </si>
+  <si>
+    <t>8.10.040.B.7</t>
+  </si>
+  <si>
+    <t>District Court for the State of Alaska</t>
+  </si>
+  <si>
+    <t>Third Judicial District of Alaska</t>
+  </si>
+  <si>
+    <t>JD: Is this mapping from a code to an Organization ID correct?</t>
+  </si>
+  <si>
+    <t>/core:CoreFilingMessage/criminalcase:CriminalCase/j:CaseAugmentation/j:CaseDefendantParty/ecf:EntityPerson</t>
+  </si>
+  <si>
+    <t>123 N Oak Street Apt #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/core:CoreFilingMessage/criminalcase:CriminalCase/j:CaseAugmentation/j:CaseProsecutionAttorney/ecf:EntityPersonnc:PersonName/nc:RoleOfPersonReference
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1034,29 +1140,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="9"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -1068,6 +1151,42 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1159,7 +1278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1182,8 +1301,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="38">
+  <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1210,20 +1342,72 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1276,53 +1460,65 @@
     <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="38">
+  <cellStyles count="90">
     <cellStyle name="Accent1 - 20%" xfId="3"/>
     <cellStyle name="Accent1 - 40%" xfId="4"/>
     <cellStyle name="Accent1 - 60%" xfId="5"/>
@@ -1350,12 +1546,64 @@
     <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="24"/>
@@ -1364,11 +1612,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1659,1337 +1902,1400 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95:B98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
-    <col min="3" max="4" width="57.28515625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="57.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="37" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>9</v>
+        <v>310</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" ht="28">
+      <c r="A6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5" ht="28">
+      <c r="A9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" ht="42">
+      <c r="A10" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" ht="42">
+      <c r="A11" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="42">
+      <c r="A12" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="C12" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" ht="42">
+      <c r="A13" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A15" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="C15" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A16" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A18" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="33">
+        <v>42257</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A19" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="E19" s="26"/>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A20" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="24" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A21" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A22" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A24" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1">
+      <c r="A25" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="E25" s="26"/>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A26" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="33">
+        <v>42344</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="E26" s="26"/>
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A27" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A28" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="33">
+        <v>42318</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A29" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="E29" s="26"/>
+    </row>
+    <row r="30" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A30" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="E30" s="26"/>
+    </row>
+    <row r="31" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A31" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="24">
+        <v>3557</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="2" customFormat="1" ht="56">
+      <c r="A32" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="E32" s="26"/>
+    </row>
+    <row r="33" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A33" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="26"/>
+    </row>
+    <row r="34" spans="1:5" s="2" customFormat="1" ht="56">
+      <c r="A34" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+    </row>
+    <row r="35" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A35" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+    </row>
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A36" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+    </row>
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="56">
+      <c r="A37" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+    </row>
+    <row r="38" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A38" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="56">
+      <c r="A39" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="E39" s="29"/>
+    </row>
+    <row r="40" spans="1:5" s="2" customFormat="1" ht="56">
+      <c r="A40" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="E40" s="26"/>
+    </row>
+    <row r="41" spans="1:5" s="2" customFormat="1" ht="56">
+      <c r="A41" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="24"/>
+      <c r="C41" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+    </row>
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A42" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+    </row>
+    <row r="44" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A44" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+    </row>
+    <row r="45" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A45" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+    </row>
+    <row r="46" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A46" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="24">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-    </row>
-    <row r="4" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-    </row>
-    <row r="5" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-    </row>
-    <row r="6" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="8" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-    </row>
-    <row r="10" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="E10" s="23"/>
-    </row>
-    <row r="11" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-    </row>
-    <row r="12" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="E12" s="23"/>
-    </row>
-    <row r="13" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="E13" s="23"/>
-    </row>
-    <row r="14" spans="1:5" ht="48" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-    </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-    </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="C46" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="E46" s="26"/>
+    </row>
+    <row r="47" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A47" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="E47" s="26"/>
+    </row>
+    <row r="48" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A48" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A49" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="C49" s="26"/>
+      <c r="D49" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A50" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="E50" s="26"/>
+    </row>
+    <row r="51" spans="1:5" s="2" customFormat="1" ht="56">
+      <c r="A51" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="24"/>
+      <c r="C51" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D51" s="28"/>
+      <c r="E51" s="26"/>
+    </row>
+    <row r="52" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A52" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="E52" s="26"/>
+    </row>
+    <row r="53" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A53" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="E53" s="26"/>
+    </row>
+    <row r="54" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A54" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+    </row>
+    <row r="55" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A55" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" s="26"/>
+      <c r="E55" s="25"/>
+    </row>
+    <row r="56" spans="1:5" s="2" customFormat="1" ht="38" customHeight="1">
+      <c r="A56" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+    </row>
+    <row r="57" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A57" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" s="25"/>
+      <c r="E57" s="28"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+    </row>
+    <row r="59" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A59" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="E59" s="26"/>
+    </row>
+    <row r="60" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A60" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="E60" s="26"/>
+    </row>
+    <row r="61" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A61" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="E61" s="26"/>
+    </row>
+    <row r="62" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A62" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="E62" s="26"/>
+    </row>
+    <row r="63" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A63" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="E63" s="26"/>
+    </row>
+    <row r="64" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A64" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" s="33">
+        <v>29521</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="E64" s="26"/>
+    </row>
+    <row r="65" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A65" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="E65" s="26"/>
+    </row>
+    <row r="66" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A66" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="C66" s="26"/>
+      <c r="D66" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="E66" s="26"/>
+    </row>
+    <row r="67" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A67" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="24"/>
+      <c r="C67" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D67" s="24"/>
+      <c r="E67" s="26"/>
+    </row>
+    <row r="68" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A68" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="E68" s="26"/>
+    </row>
+    <row r="69" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A69" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="E69" s="26"/>
+    </row>
+    <row r="70" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A70" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="24"/>
+      <c r="C70" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D70" s="35"/>
+      <c r="E70" s="26"/>
+    </row>
+    <row r="71" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A71" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="E71" s="26"/>
+    </row>
+    <row r="72" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A72" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="E72" s="26"/>
+    </row>
+    <row r="73" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A73" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E73" s="26"/>
+    </row>
+    <row r="74" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A74" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="E74" s="26"/>
+    </row>
+    <row r="75" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A75" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="E75" s="26"/>
+    </row>
+    <row r="76" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A76" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="E76" s="26"/>
+    </row>
+    <row r="77" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A77" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="E77" s="26"/>
+    </row>
+    <row r="78" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A78" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-    </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="E24" s="29"/>
-    </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
-    </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="E27" s="29"/>
-    </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="E28" s="29"/>
-    </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="E29" s="29"/>
-    </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="29"/>
-    </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="29"/>
-    </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
-    </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="29"/>
-    </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="29"/>
-    </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="29"/>
-    </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="29"/>
-    </row>
-    <row r="38" spans="1:5" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="29"/>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="E39" s="29"/>
-    </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="29"/>
-    </row>
-    <row r="41" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
+      <c r="B79" s="18"/>
+      <c r="C79" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+    </row>
+    <row r="80" spans="1:5" ht="42">
+      <c r="A80" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="29"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-    </row>
-    <row r="43" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A43" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="29"/>
-    </row>
-    <row r="44" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="29" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="29"/>
-    </row>
-    <row r="46" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="E46" s="29"/>
-    </row>
-    <row r="47" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="D48" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="E48" s="29"/>
-    </row>
-    <row r="49" spans="1:5" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="29"/>
-    </row>
-    <row r="50" spans="1:5" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A50" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="D50" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="E50" s="29"/>
-    </row>
-    <row r="51" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="D51" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="E51" s="29"/>
-    </row>
-    <row r="52" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="29"/>
-    </row>
-    <row r="53" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A53" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="29"/>
-    </row>
-    <row r="54" spans="1:5" s="2" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="E54" s="29" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A55" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="29"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-    </row>
-    <row r="57" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A57" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28" t="s">
+      <c r="B80" s="19"/>
+      <c r="C80" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+    </row>
+    <row r="81" spans="1:9" ht="28">
+      <c r="A81" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+    </row>
+    <row r="82" spans="1:9" ht="28">
+      <c r="A82" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D57" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="E57" s="29"/>
-    </row>
-    <row r="58" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D58" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="E58" s="29"/>
-    </row>
-    <row r="59" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A59" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D59" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="E59" s="29"/>
-    </row>
-    <row r="60" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D60" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="E60" s="29"/>
-    </row>
-    <row r="61" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A61" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D61" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="E61" s="29"/>
-    </row>
-    <row r="62" spans="1:5" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A62" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="D62" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="E62" s="29"/>
-    </row>
-    <row r="63" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A63" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="D63" s="28"/>
-      <c r="E63" s="29"/>
-    </row>
-    <row r="64" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A64" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="D64" s="28"/>
-      <c r="E64" s="29"/>
-    </row>
-    <row r="65" spans="1:9" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A65" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="D65" s="28"/>
-      <c r="E65" s="29"/>
-    </row>
-    <row r="66" spans="1:9" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A66" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="D66" s="28"/>
-      <c r="E66" s="29"/>
-    </row>
-    <row r="67" spans="1:9" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A67" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="D67" s="28"/>
-      <c r="E67" s="29"/>
-    </row>
-    <row r="68" spans="1:9" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A68" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="D68" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="E68" s="29"/>
-    </row>
-    <row r="69" spans="1:9" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A69" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="E69" s="29"/>
-    </row>
-    <row r="70" spans="1:9" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A70" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="D70" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="E70" s="29"/>
-    </row>
-    <row r="71" spans="1:9" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A71" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="D71" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="E71" s="29"/>
-    </row>
-    <row r="72" spans="1:9" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A72" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="E72" s="29"/>
-    </row>
-    <row r="73" spans="1:9" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A73" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="D73" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="E73" s="29" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A74" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="D74" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="E74" s="29"/>
-    </row>
-    <row r="75" spans="1:9" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A75" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="D75" s="28"/>
-      <c r="E75" s="29"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="B76" s="19"/>
-      <c r="C76" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-    </row>
-    <row r="77" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A77" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B77" s="25"/>
-      <c r="C77" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="23"/>
-    </row>
-    <row r="78" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A78" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B78" s="25"/>
-      <c r="C78" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="23"/>
-    </row>
-    <row r="79" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A79" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-    </row>
-    <row r="80" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A80" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-    </row>
-    <row r="81" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A81" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-    </row>
-    <row r="82" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A82" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D82" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="E82" s="22"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="1:9" ht="24" x14ac:dyDescent="0.25">
-      <c r="A83" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
+    <row r="83" spans="1:9" ht="28">
+      <c r="A83" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
     </row>
-    <row r="84" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A84" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
+    <row r="84" spans="1:9" ht="42">
+      <c r="A84" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
     </row>
-    <row r="85" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A85" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
+    <row r="85" spans="1:9" ht="28">
+      <c r="A85" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E85" s="19"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A86" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
+    <row r="86" spans="1:9">
+      <c r="A86" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="42">
       <c r="A87" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
+        <v>57</v>
+      </c>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
     </row>
-    <row r="88" spans="1:9" ht="24" x14ac:dyDescent="0.25">
-      <c r="A88" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
+    <row r="88" spans="1:9" ht="42">
+      <c r="A88" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
     </row>
-    <row r="89" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="42">
       <c r="A89" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="D89" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="E89" s="22"/>
+        <v>59</v>
+      </c>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
+    <row r="90" spans="1:9" ht="28">
+      <c r="A90" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
     </row>
-    <row r="91" spans="1:9" ht="24" x14ac:dyDescent="0.25">
-      <c r="A91" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
+    <row r="91" spans="1:9">
+      <c r="A91" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
     </row>
-    <row r="92" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="28">
       <c r="A92" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="D92" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="E92" s="22"/>
+        <v>209</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="E92" s="19"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
     </row>
-    <row r="93" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A93" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="D93" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="E93" s="22"/>
+    <row r="93" spans="1:9">
+      <c r="A93" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
     </row>
-    <row r="94" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
+        <v>211</v>
+      </c>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
     </row>
-    <row r="95" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="56">
       <c r="A95" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="B95" s="22"/>
-      <c r="C95" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="D95" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="E95" s="22"/>
+        <v>212</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="E95" s="19"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="B96" s="20"/>
-      <c r="C96" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
+    <row r="96" spans="1:9" ht="42">
+      <c r="A96" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="E96" s="19"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
     </row>
-    <row r="97" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="42">
       <c r="A97" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97" s="22"/>
-      <c r="C97" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="D97" s="22"/>
-      <c r="E97" s="22"/>
+        <v>214</v>
+      </c>
+      <c r="B97" s="21"/>
+      <c r="C97" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
     </row>
-    <row r="98" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="42">
       <c r="A98" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
+        <v>215</v>
+      </c>
+      <c r="B98" s="21">
+        <v>21905</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="E98" s="19"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="B99" s="20"/>
-      <c r="C99" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
+    <row r="99" spans="1:9">
+      <c r="A99" s="10"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
     </row>
-    <row r="100" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A100" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="B100" s="22"/>
-      <c r="C100" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22"/>
+    <row r="100" spans="1:9">
+      <c r="A100" s="10"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
     </row>
-    <row r="101" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A101" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="B101" s="22"/>
-      <c r="C101" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="D101" s="22"/>
-      <c r="E101" s="22"/>
+    <row r="101" spans="1:9">
+      <c r="A101" s="10"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
     </row>
-    <row r="102" spans="1:9" ht="24" x14ac:dyDescent="0.25">
-      <c r="A102" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="B102" s="20"/>
-      <c r="C102" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
+    <row r="102" spans="1:9">
+      <c r="A102" s="10"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
     </row>
-    <row r="103" spans="1:9" ht="24" x14ac:dyDescent="0.25">
-      <c r="A103" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="B103" s="22"/>
-      <c r="C103" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
+    <row r="103" spans="1:9">
+      <c r="A103" s="10"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" s="10"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3000,7 +3306,7 @@
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" s="10"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3011,7 +3317,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" s="10"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3022,7 +3328,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" s="10"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3033,7 +3339,7 @@
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" s="10"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3044,64 +3350,9 @@
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="10"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="10"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="10"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="10"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3118,17 +3369,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="152.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="32.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="152.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>9</v>
@@ -3137,649 +3388,649 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="9"/>
     </row>
-    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="12" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="12" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="12" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="12" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="12" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="12" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="12" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="2" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A17" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A18" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A19" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A20" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A21" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A22" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A23" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A24" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A25" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A26" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A27" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A28" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A29" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="2" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A31" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="9"/>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A33" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A34" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A35" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A36" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A37" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A38" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A39" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A40" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A41" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A42" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="9"/>
     </row>
-    <row r="44" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A44" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A45" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A46" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A47" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A48" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A49" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A50" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A51" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A52" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A53" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A54" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A55" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A56" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="2" customFormat="1" ht="12">
       <c r="A57" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="12" customHeight="1">
       <c r="A59" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59" s="15"/>
       <c r="C59" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="12" customHeight="1">
       <c r="A60" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B60" s="15"/>
       <c r="C60" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="12" customHeight="1">
       <c r="A61" s="12" t="s">
         <v>53</v>
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="12" customHeight="1">
       <c r="A62" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B62" s="15"/>
       <c r="C62" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="12" customHeight="1">
       <c r="A63" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B63" s="15"/>
       <c r="C63" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="12" customHeight="1">
       <c r="A64" s="12" t="s">
         <v>56</v>
       </c>
       <c r="B64" s="15"/>
       <c r="C64" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="12" customHeight="1">
       <c r="A66" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="12" customHeight="1">
       <c r="A67" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="12" customHeight="1">
       <c r="A68" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="12" customHeight="1">
       <c r="A69" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="10"/>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="10"/>
       <c r="C71" s="3"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="10"/>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="10"/>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="10"/>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="C80" s="3"/>
     </row>
-    <row r="81" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3" s="1" customFormat="1">
       <c r="C81" s="3"/>
     </row>
-    <row r="82" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3" s="1" customFormat="1">
       <c r="C82" s="3"/>
     </row>
-    <row r="83" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:3" s="1" customFormat="1">
       <c r="C83" s="3"/>
     </row>
   </sheetData>
